--- a/data-raw/HRMIS_Harmonization_Metadata_Template.xlsx
+++ b/data-raw/HRMIS_Harmonization_Metadata_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/iedochie_worldbank_org/Documents/Documents/GitProjects/hrmistools/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/galileukim_worldbank_org/Documents/github/hrmistools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{FB3D2863-2366-4FE9-964E-06FAC897779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A6EAFB-6E82-43F2-B618-D10DE86C02C1}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{FB3D2863-2366-4FE9-964E-06FAC897779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92D6774-7FA2-439C-9865-547687BB059F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset_Metadata" sheetId="1" r:id="rId1"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,9 +1366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1694,9 +1699,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
